--- a/Image and excel sheet/indiafertilizer.xlsx
+++ b/Image and excel sheet/indiafertilizer.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="241">
   <si>
     <t>Category</t>
   </si>
@@ -880,19 +880,118 @@
     <t>HYJET GUN WITH OPERATING LEVER SPGT (80 CM)</t>
   </si>
   <si>
+    <t xml:space="preserve">The HYJET Gun with Operating Lever SPGT (80 cm) is a durable and versatile agricultural tool designed for efficient spraying applications. Its robust build and ergonomic design make it ideal for use in farming, gardening, and other industrial spraying needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhances spraying efficiency while reducing operator fatigue.
+Provides excellent control for targeted spraying.
+Ideal for professional and personal agricultural practices.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for use in agricultural fields, greenhouses, orchards, and gardens.
+Perfect for spraying pesticides, herbicides, fertilizers, and water.
+</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
     <t>ASPEE TURRBO TEKK 100 MTR 10 MM YELLOW HOSE</t>
   </si>
   <si>
+    <t xml:space="preserve">The ASPEE TURRBO TEKK 100 MTR 10 MM Yellow Hose is a high-performance and durable hose designed to meet the demanding needs of agricultural and industrial spraying tasks. Its superior build and flexibility make it an ideal solution for professional-grade applications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures long-lasting performance for heavy-duty use.
+Offers ease of handling and operation, reducing user effort.
+Compatible with a wide range of sprayers and pumps.
+Ideal for both professional agricultural use and industrial spraying applications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for spraying pesticides, fertilizers, and herbicides in agricultural fields.
+Suitable for water distribution, irrigation, and industrial spraying tasks.
+</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
     <t>APPLE MASTER GUN CODE : SPGA (32 CM)</t>
   </si>
   <si>
-    <t>ASPEE SPRAY GUN CODE : SPGC/SS (56 CMS)</t>
+    <t xml:space="preserve">The APPLE Master Gun SPGA (32 CM) is a compact and efficient spraying tool designed for precision and ease of use. Built with durable materials and engineered for optimal performance, it is an ideal choice for both professional and personal agricultural spraying needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivers accurate and uniform spraying for effective results.
+Easy to handle and operate, even in tight spaces.
+Reliable performance for everyday spraying tasks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal for applying pesticides, herbicides, and fertilizers in small gardens, orchards, and agricultural fields.
+Suitable for indoor and outdoor spraying needs.
+</t>
+  </si>
+  <si>
+    <t>ASPEE SPRAY GUN CODE : SPGC/SS (56 CM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ASPEE Spray Gun SPGC/SS (56 cm) is a robust and versatile spraying solution designed to meet the needs of modern agriculture and horticulture. Featuring high-quality stainless steel construction, it ensures durability and precision for a variety of spraying tasks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides reliable performance in various weather and field conditions.
+Ensures effective distribution of pesticides, herbicides, and fertilizers.
+Durable construction reduces maintenance and replacement costs over time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for spraying operations in agriculture, greenhouses, orchards, and plantations.
+Suitable for professional and home gardening tasks requiring efficient coverage.
+</t>
   </si>
   <si>
     <t>Flat Fan Nozzle</t>
   </si>
   <si>
+    <t xml:space="preserve">The Flat Fan Nozzle is a precision-engineered spraying accessory designed to deliver a uniform and efficient spray pattern for a wide range of applications. Its versatility and performance make it an essential tool for agricultural, industrial, and household spraying needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures precise and uniform application, reducing waste of chemicals.
+Suitable for low to medium pressure systems, saving energy.
+Corrosion-resistant and easy to clean for long-lasting use.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture: Ideal for applying fertilizers, pesticides, herbicides, and fungicides.
+Industrial: Used in cleaning, coating, and cooling systems.
+Horticulture and Gardening: Ensures accurate spraying for plants and lawns.
+</t>
+  </si>
+  <si>
     <t>Floodjet Nozzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FloodJet Nozzle is a high-performance spray nozzle designed to deliver a wide, heavy spray pattern, making it ideal for broad coverage applications. Known for its efficiency and reliability, this nozzle is widely used in agricultural and industrial settings.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covers large areas quickly, reducing spraying time and labor.
+Ensures uniform application, minimizing overlap and waste.
+Handles heavier liquids with ease, making it suitable for a variety of substances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture: Ideal for applying fertilizers, soil amendments, herbicides, and irrigation water.
+Industrial: Used for cooling, washing, and dust control in industrial processes.
+Horticulture and Landscaping: Suitable for watering large areas like gardens, lawns, and nurseries.
+</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1570,6 +1669,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2157,7 +2259,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2189,19 +2291,19 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
@@ -2224,16 +2326,16 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2268,7 +2370,7 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2300,10 +2402,10 @@
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2335,10 +2437,10 @@
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2370,7 +2472,7 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2405,7 +2507,7 @@
       <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2440,7 +2542,7 @@
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2463,7 +2565,7 @@
       </c>
     </row>
     <row r="10" ht="120" spans="1:11">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B10" t="s">
@@ -2475,7 +2577,7 @@
       <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2545,7 +2647,7 @@
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2615,7 +2717,7 @@
       <c r="D14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2720,7 +2822,7 @@
       <c r="D17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2755,7 +2857,7 @@
       <c r="D18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2790,7 +2892,7 @@
       <c r="D19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2860,7 +2962,7 @@
       <c r="D21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2930,7 +3032,7 @@
       <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>117</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3035,7 +3137,7 @@
       <c r="D26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -3070,7 +3172,7 @@
       <c r="D27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3105,7 +3207,7 @@
       <c r="D28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>136</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -3157,8 +3259,8 @@
   <sheetPr/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3873,7 +3975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" ht="105" spans="1:11">
       <c r="A21" t="s">
         <v>213</v>
       </c>
@@ -3886,20 +3988,20 @@
       <c r="D21" t="s">
         <v>215</v>
       </c>
-      <c r="E21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" t="s">
-        <v>165</v>
+      <c r="E21" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21">
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="J21">
         <v>120</v>
@@ -3908,7 +4010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" ht="135" spans="1:11">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -3919,22 +4021,22 @@
         <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" t="s">
-        <v>165</v>
+        <v>220</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="J22">
         <v>300</v>
@@ -3943,7 +4045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" ht="105" spans="1:11">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -3953,23 +4055,23 @@
       <c r="C23" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" t="s">
-        <v>165</v>
+      <c r="D23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="J23">
         <v>300</v>
@@ -3978,7 +4080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" ht="120" spans="1:11">
       <c r="A24" t="s">
         <v>213</v>
       </c>
@@ -3989,22 +4091,22 @@
         <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" t="s">
-        <v>165</v>
+        <v>229</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24">
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="J24">
         <v>450</v>
@@ -4013,7 +4115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" ht="105" spans="1:11">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4024,16 +4126,16 @@
         <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" t="s">
-        <v>165</v>
+        <v>233</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="H25" t="s">
         <v>165</v>
@@ -4048,7 +4150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" ht="120" spans="1:11">
       <c r="A26" t="s">
         <v>213</v>
       </c>
@@ -4059,16 +4161,16 @@
         <v>214</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" t="s">
-        <v>165</v>
+        <v>237</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="H26" t="s">
         <v>165</v>

--- a/Image and excel sheet/indiafertilizer.xlsx
+++ b/Image and excel sheet/indiafertilizer.xlsx
@@ -565,70 +565,10 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Seeds</t>
+    <t xml:space="preserve">Seeds </t>
   </si>
   <si>
     <t>Horticultural Crops</t>
-  </si>
-  <si>
-    <t>SAAHO TOMATO SEEDS [TO-3251]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saaho Tomato Seeds is a high-yielding determinate tomato hybrid developed by Syngenta.
-It is known for its excellent fruit quality and high fruit firmness.
-The plant has good stay greenness and dark green foliage.
-Saaho Tomato Seeds is having good heat set.
-</t>
-  </si>
-  <si>
-    <t>Fruit Color: Ripe fruits are attractive red &amp; glossy.
-Fruit Shape: Flat Round type, uniform green.
-Fruit Weight: 80-100gms.
-Average Yield: 25-40 MT/acre (depending on season and cultural practice).</t>
-  </si>
-  <si>
-    <t>Seed Rate: 40-50 gm per acre.
-Time of Transplanting: Transplanting should be done at 21-25 days after sowing.
-Spacing: Row to Row and Plant to Plant - 120 x 60cm.
-First Harvest: Harvest the fruit at the time of physiological maturity. It starts maturing by 65 -70 days after transplanting- depending on season/climate. Picking is done generally at an interval of 4-5 days. Depending on the type of market/distance -tomatoes are picked.</t>
-  </si>
-  <si>
-    <t>Namdhari Seeds</t>
-  </si>
-  <si>
-    <t>Surabhi Coriander Seeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surabhi Coriander is a very vigorous variety having excellent yield potential.
-Suitable for multiple cuts with very attractive, large, shiny leaves having a good aroma.
-It is a late-bolting variety and can be grown round the year.
-It is a dark shiny green foliage color.
-</t>
-  </si>
-  <si>
-    <t>Type: Multicut.
-Plant Vigour: Good Vigour.
-Foliage Color: Dark green.
-Stalk Length: 20 –25cm.</t>
-  </si>
-  <si>
-    <t>Sowing Season: Kharif, Rabi, Summer.
-Recommended States: All states of India.
-Seed Rate: 8-10kg/Acre.
-First Harvest: 35 days after sowing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surabhi Coriander is a very vigorous variety having excellent yield potential.
-Suitable for multiple cuts with very attractive, large, shiny leaves having a good aroma.
-It is a late-bolting variety and can be grown round the year.
-It is a dark shiny green foliage color.
-</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeds </t>
   </si>
   <si>
     <t>Advanta</t>
@@ -654,63 +594,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Madhur Beetroot Seeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madhur seeds has excellent field holding capacity and wide adaptability.
-The root shape is maintained even under close spacing.
-Foliage is medium dull green with maroon tinge
-Plant Vigour : Good
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHAPE/ SIZE: Dark red and round roots.
-WEIGHT: Each root weighs 100 - 120 g.
-NOTE:9000 to 10000 seeds per 200gm packet.
-</t>
-  </si>
-  <si>
-    <t>VNR</t>
-  </si>
-  <si>
-    <t>Simran F1 Hybrid Binjal Seeds</t>
-  </si>
-  <si>
-    <t>Colour: Light Purple Gr
-een Variegated.
-Profuse bearing in clusters.
-High yield potential.
-Suitable for distant transportation.</t>
-  </si>
-  <si>
-    <t>Shape: Oval..
-Size: Length is 7-8 cm &amp; Width is 4-4.5 cm.
-Weight: Average fruit weight is 80-100 gms..
-First Harvest: 50-55 Days.</t>
-  </si>
-  <si>
-    <t>Aarti F1 Hybrid Ridge Gourd Seeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNR Aarti Ridge Gourd produces tender and attractive green fruits.
-It is an extended harvest variety and
-Aarti Ridge Gourd Seeds has high yield potential with uniform &amp; quality fruits.
-</t>
-  </si>
-  <si>
-    <t>Fruit Colour: Attractive green.
-Fruit Length: 25-30 cm.
-Fruit Weight: 200-225 gm.
-Fruit Width: 2.2 - 2.6 cm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seed Rate: 0.8 - 1.5 kg per acre.
-Method of Sowing: Dibbling.
-Spacing: Row to Ridges is- 5-8 ft and Plant to Plant is- 2-3 ft.
-First harvest (DAS): 50 – 55 days.
-</t>
-  </si>
-  <si>
     <t>Ashoka</t>
   </si>
   <si>
@@ -729,6 +612,9 @@
 Resistant to Bean Common Mosaic Virus, Halo Blight.</t>
   </si>
   <si>
+    <t>KG</t>
+  </si>
+  <si>
     <t>POLE BEANS NZ</t>
   </si>
   <si>
@@ -743,6 +629,9 @@
 Tolerance to fusarium wilt, Bean Common Mosaic virus.</t>
   </si>
   <si>
+    <t>Seeds</t>
+  </si>
+  <si>
     <t>POLE BELLI BEANS</t>
   </si>
   <si>
@@ -753,6 +642,177 @@
     <t xml:space="preserve">Average fruit length 12-12 cm.
 Maturity 45-50 days after sowing.
 High Yielding, Good adaptability to high temperature and disease tolerance.
+</t>
+  </si>
+  <si>
+    <t>Sprayer Spares</t>
+  </si>
+  <si>
+    <t>Aspee</t>
+  </si>
+  <si>
+    <t>HYJET GUN WITH OPERATING LEVER SPGT (80 CM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HYJET Gun with Operating Lever SPGT (80 cm) is a durable and versatile agricultural tool designed for efficient spraying applications. Its robust build and ergonomic design make it ideal for use in farming, gardening, and other industrial spraying needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhances spraying efficiency while reducing operator fatigue.
+Provides excellent control for targeted spraying.
+Ideal for professional and personal agricultural practices.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for use in agricultural fields, greenhouses, orchards, and gardens.
+Perfect for spraying pesticides, herbicides, fertilizers, and water.
+</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>ASPEE TURRBO TEKK 100 MTR 10 MM YELLOW HOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ASPEE TURRBO TEKK 100 MTR 10 MM Yellow Hose is a high-performance and durable hose designed to meet the demanding needs of agricultural and industrial spraying tasks. Its superior build and flexibility make it an ideal solution for professional-grade applications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures long-lasting performance for heavy-duty use.
+Offers ease of handling and operation, reducing user effort.
+Compatible with a wide range of sprayers and pumps.
+Ideal for both professional agricultural use and industrial spraying applications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for spraying pesticides, fertilizers, and herbicides in agricultural fields.
+Suitable for water distribution, irrigation, and industrial spraying tasks.
+</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>APPLE MASTER GUN CODE : SPGA (32 CM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The APPLE Master Gun SPGA (32 CM) is a compact and efficient spraying tool designed for precision and ease of use. Built with durable materials and engineered for optimal performance, it is an ideal choice for both professional and personal agricultural spraying needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivers accurate and uniform spraying for effective results.
+Easy to handle and operate, even in tight spaces.
+Reliable performance for everyday spraying tasks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal for applying pesticides, herbicides, and fertilizers in small gardens, orchards, and agricultural fields.
+Suitable for indoor and outdoor spraying needs.
+</t>
+  </si>
+  <si>
+    <t>ASPEE SPRAY GUN CODE : SPGC/SS (56 CM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ASPEE Spray Gun SPGC/SS (56 cm) is a robust and versatile spraying solution designed to meet the needs of modern agriculture and horticulture. Featuring high-quality stainless steel construction, it ensures durability and precision for a variety of spraying tasks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides reliable performance in various weather and field conditions.
+Ensures effective distribution of pesticides, herbicides, and fertilizers.
+Durable construction reduces maintenance and replacement costs over time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for spraying operations in agriculture, greenhouses, orchards, and plantations.
+Suitable for professional and home gardening tasks requiring efficient coverage.
+</t>
+  </si>
+  <si>
+    <t>Flat Fan Nozzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Flat Fan Nozzle is a precision-engineered spraying accessory designed to deliver a uniform and efficient spray pattern for a wide range of applications. Its versatility and performance make it an essential tool for agricultural, industrial, and household spraying needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensures precise and uniform application, reducing waste of chemicals.
+Suitable for low to medium pressure systems, saving energy.
+Corrosion-resistant and easy to clean for long-lasting use.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture: Ideal for applying fertilizers, pesticides, herbicides, and fungicides.
+Industrial: Used in cleaning, coating, and cooling systems.
+Horticulture and Gardening: Ensures accurate spraying for plants and lawns.
+</t>
+  </si>
+  <si>
+    <t>Floodjet Nozzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FloodJet Nozzle is a high-performance spray nozzle designed to deliver a wide, heavy spray pattern, making it ideal for broad coverage applications. Known for its efficiency and reliability, this nozzle is widely used in agricultural and industrial settings.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covers large areas quickly, reducing spraying time and labor.
+Ensures uniform application, minimizing overlap and waste.
+Handles heavier liquids with ease, making it suitable for a variety of substances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture: Ideal for applying fertilizers, soil amendments, herbicides, and irrigation water.
+Industrial: Used for cooling, washing, and dust control in industrial processes.
+Horticulture and Landscaping: Suitable for watering large areas like gardens, lawns, and nurseries.
+</t>
+  </si>
+  <si>
+    <t>Namdhari Seeds</t>
+  </si>
+  <si>
+    <t>Surabhi Coriander Seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surabhi Coriander is a very vigorous variety having excellent yield potential.
+Suitable for multiple cuts with very attractive, large, shiny leaves having a good aroma.
+It is a late-bolting variety and can be grown round the year.
+It is a dark shiny green foliage color.
+</t>
+  </si>
+  <si>
+    <t>Type: Multicut.
+Plant Vigour: Good Vigour.
+Foliage Color: Dark green.
+Stalk Length: 20 –25cm.</t>
+  </si>
+  <si>
+    <t>Sowing Season: Kharif, Rabi, Summer.
+Recommended States: All states of India.
+Seed Rate: 8-10kg/Acre.
+First Harvest: 35 days after sowing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surabhi Coriander is a very vigorous variety having excellent yield potential.
+Suitable for multiple cuts with very attractive, large, shiny leaves having a good aroma.
+It is a late-bolting variety and can be grown round the year.
+It is a dark shiny green foliage color.
+</t>
+  </si>
+  <si>
+    <t>Madhur Beetroot Seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhur seeds has excellent field holding capacity and wide adaptability.
+The root shape is maintained even under close spacing.
+Foliage is medium dull green with maroon tinge
+Plant Vigour : Good
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAPE/ SIZE: Dark red and round roots.
+WEIGHT: Each root weighs 100 - 120 g.
+NOTE:9000 to 10000 seeds per 200gm packet.
 </t>
   </si>
   <si>
@@ -773,22 +833,68 @@
 Remarks:Excellent colour and shape.</t>
   </si>
   <si>
-    <t>Takii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW KURODA GOSUN CARROT SEEDS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Description: Long root, deep orange colour fruit and harvest starts from 70 days.
-Soil Requirements: Well drained red loamy soil.
-Height after growth: 1-1.5 feet.
-Best time to plant : Year round except January to May.
-Sunlight Requirement: Natural sunlight.
-</t>
-  </si>
-  <si>
     <t>Field Crops</t>
+  </si>
+  <si>
+    <t>RASI seeds</t>
+  </si>
+  <si>
+    <t>RCH 779 Cotton Hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for Closer Spacing Plantation.
+Maturity Suitable for Second crop sowing.
+Long Sympodia with Chain Bearing.
+Good Sucking Pest Tolerance.
+</t>
+  </si>
+  <si>
+    <t>RCH 846 BGII Cotton Hybrid</t>
+  </si>
+  <si>
+    <t>Early maturing Hybrid.
+Better Pest &amp; Disease Tolerance.
+Big bolls with Easy Picking.</t>
+  </si>
+  <si>
+    <t>RCH 386 Cotton Hybrid</t>
+  </si>
+  <si>
+    <t>Big bolls and good boll bursting.
+Easy picking.
+Good boll retention.
+Better tolerance to Jassids.</t>
+  </si>
+  <si>
+    <t>Improved Paddy – Laxmi</t>
+  </si>
+  <si>
+    <t>Duration – 120-125 days.
+Medium Slender grain.
+Non-shattering grains.</t>
+  </si>
+  <si>
+    <t>Hybrid Maize – 4595</t>
+  </si>
+  <si>
+    <t>Early maturity (95-100 days).
+Big &amp; uniform cobs with good tip filling.
+Bold grains and high-test weight.
+Attractive orange colour of grains.</t>
+  </si>
+  <si>
+    <t>kG</t>
+  </si>
+  <si>
+    <t>Hybrid Bajra – 1836</t>
+  </si>
+  <si>
+    <t>Early Maturity:75-80days of Maturity.
+More number of tillers per plant.
+Stay Green till Harvest.</t>
+  </si>
+  <si>
+    <t>KG`</t>
   </si>
   <si>
     <t xml:space="preserve">Rise Agro
@@ -810,187 +916,81 @@
 Germination : 80- 90 %.</t>
   </si>
   <si>
-    <t>RASI seeds</t>
-  </si>
-  <si>
-    <t>RCH 779 Cotton Hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suitable for Closer Spacing Plantation.
-Maturity Suitable for Second crop sowing.
-Long Sympodia with Chain Bearing.
-Good Sucking Pest Tolerance.
-</t>
-  </si>
-  <si>
-    <t>RCH 846 BGII Cotton Hybrid</t>
-  </si>
-  <si>
-    <t>Early maturing Hybrid.
-Better Pest &amp; Disease Tolerance.
-Big bolls with Easy Picking.</t>
-  </si>
-  <si>
-    <t>RCH 386 Cotton Hybrid</t>
-  </si>
-  <si>
-    <t>Big bolls and good boll bursting.
-Easy picking.
-Good boll retention.
-Better tolerance to Jassids.</t>
-  </si>
-  <si>
-    <t>Improved Paddy – Laxmi</t>
-  </si>
-  <si>
-    <t>Duration – 120-125 days.
-Medium Slender grain.
-Non-shattering grains.</t>
-  </si>
-  <si>
-    <t>Hybrid Maize – 4595</t>
-  </si>
-  <si>
-    <t>Early maturity (95-100 days).
-Big &amp; uniform cobs with good tip filling.
-Bold grains and high-test weight.
-Attractive orange colour of grains.</t>
-  </si>
-  <si>
-    <t>kG</t>
-  </si>
-  <si>
-    <t>Hybrid Bajra – 1836</t>
-  </si>
-  <si>
-    <t>Early Maturity:75-80days of Maturity.
-More number of tillers per plant.
-Stay Green till Harvest.</t>
-  </si>
-  <si>
-    <t>KG`</t>
-  </si>
-  <si>
-    <t>Sprayer Spares</t>
-  </si>
-  <si>
-    <t>Aspee</t>
-  </si>
-  <si>
-    <t>HYJET GUN WITH OPERATING LEVER SPGT (80 CM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The HYJET Gun with Operating Lever SPGT (80 cm) is a durable and versatile agricultural tool designed for efficient spraying applications. Its robust build and ergonomic design make it ideal for use in farming, gardening, and other industrial spraying needs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhances spraying efficiency while reducing operator fatigue.
-Provides excellent control for targeted spraying.
-Ideal for professional and personal agricultural practices.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suitable for use in agricultural fields, greenhouses, orchards, and gardens.
-Perfect for spraying pesticides, herbicides, fertilizers, and water.
-</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>ASPEE TURRBO TEKK 100 MTR 10 MM YELLOW HOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ASPEE TURRBO TEKK 100 MTR 10 MM Yellow Hose is a high-performance and durable hose designed to meet the demanding needs of agricultural and industrial spraying tasks. Its superior build and flexibility make it an ideal solution for professional-grade applications.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensures long-lasting performance for heavy-duty use.
-Offers ease of handling and operation, reducing user effort.
-Compatible with a wide range of sprayers and pumps.
-Ideal for both professional agricultural use and industrial spraying applications.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect for spraying pesticides, fertilizers, and herbicides in agricultural fields.
-Suitable for water distribution, irrigation, and industrial spraying tasks.
-</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>APPLE MASTER GUN CODE : SPGA (32 CM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The APPLE Master Gun SPGA (32 CM) is a compact and efficient spraying tool designed for precision and ease of use. Built with durable materials and engineered for optimal performance, it is an ideal choice for both professional and personal agricultural spraying needs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivers accurate and uniform spraying for effective results.
-Easy to handle and operate, even in tight spaces.
-Reliable performance for everyday spraying tasks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ideal for applying pesticides, herbicides, and fertilizers in small gardens, orchards, and agricultural fields.
-Suitable for indoor and outdoor spraying needs.
-</t>
-  </si>
-  <si>
-    <t>ASPEE SPRAY GUN CODE : SPGC/SS (56 CM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ASPEE Spray Gun SPGC/SS (56 cm) is a robust and versatile spraying solution designed to meet the needs of modern agriculture and horticulture. Featuring high-quality stainless steel construction, it ensures durability and precision for a variety of spraying tasks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides reliable performance in various weather and field conditions.
-Ensures effective distribution of pesticides, herbicides, and fertilizers.
-Durable construction reduces maintenance and replacement costs over time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect for spraying operations in agriculture, greenhouses, orchards, and plantations.
-Suitable for professional and home gardening tasks requiring efficient coverage.
-</t>
-  </si>
-  <si>
-    <t>Flat Fan Nozzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Flat Fan Nozzle is a precision-engineered spraying accessory designed to deliver a uniform and efficient spray pattern for a wide range of applications. Its versatility and performance make it an essential tool for agricultural, industrial, and household spraying needs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensures precise and uniform application, reducing waste of chemicals.
-Suitable for low to medium pressure systems, saving energy.
-Corrosion-resistant and easy to clean for long-lasting use.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture: Ideal for applying fertilizers, pesticides, herbicides, and fungicides.
-Industrial: Used in cleaning, coating, and cooling systems.
-Horticulture and Gardening: Ensures accurate spraying for plants and lawns.
-</t>
-  </si>
-  <si>
-    <t>Floodjet Nozzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The FloodJet Nozzle is a high-performance spray nozzle designed to deliver a wide, heavy spray pattern, making it ideal for broad coverage applications. Known for its efficiency and reliability, this nozzle is widely used in agricultural and industrial settings.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covers large areas quickly, reducing spraying time and labor.
-Ensures uniform application, minimizing overlap and waste.
-Handles heavier liquids with ease, making it suitable for a variety of substances.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture: Ideal for applying fertilizers, soil amendments, herbicides, and irrigation water.
-Industrial: Used for cooling, washing, and dust control in industrial processes.
-Horticulture and Landscaping: Suitable for watering large areas like gardens, lawns, and nurseries.
+    <t>SAAHO TOMATO SEEDS [TO-3251]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saaho Tomato Seeds is a high-yielding determinate tomato hybrid developed by Syngenta.
+It is known for its excellent fruit quality and high fruit firmness.
+The plant has good stay greenness and dark green foliage.
+Saaho Tomato Seeds is having good heat set.
+</t>
+  </si>
+  <si>
+    <t>Fruit Color: Ripe fruits are attractive red &amp; glossy.
+Fruit Shape: Flat Round type, uniform green.
+Fruit Weight: 80-100gms.
+Average Yield: 25-40 MT/acre (depending on season and cultural practice).</t>
+  </si>
+  <si>
+    <t>Seed Rate: 40-50 gm per acre.
+Time of Transplanting: Transplanting should be done at 21-25 days after sowing.
+Spacing: Row to Row and Plant to Plant - 120 x 60cm.
+First Harvest: Harvest the fruit at the time of physiological maturity. It starts maturing by 65 -70 days after transplanting- depending on season/climate. Picking is done generally at an interval of 4-5 days. Depending on the type of market/distance -tomatoes are picked.</t>
+  </si>
+  <si>
+    <t>Takii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW KURODA GOSUN CARROT SEEDS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Description: Long root, deep orange colour fruit and harvest starts from 70 days.
+Soil Requirements: Well drained red loamy soil.
+Height after growth: 1-1.5 feet.
+Best time to plant : Year round except January to May.
+Sunlight Requirement: Natural sunlight.
+</t>
+  </si>
+  <si>
+    <t>VNR</t>
+  </si>
+  <si>
+    <t>Simran F1 Hybrid Binjal Seeds</t>
+  </si>
+  <si>
+    <t>Colour: Light Purple Gr
+een Variegated.
+Profuse bearing in clusters.
+High yield potential.
+Suitable for distant transportation.</t>
+  </si>
+  <si>
+    <t>Shape: Oval..
+Size: Length is 7-8 cm &amp; Width is 4-4.5 cm.
+Weight: Average fruit weight is 80-100 gms..
+First Harvest: 50-55 Days.</t>
+  </si>
+  <si>
+    <t>Aarti F1 Hybrid Ridge Gourd Seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNR Aarti Ridge Gourd produces tender and attractive green fruits.
+It is an extended harvest variety and
+Aarti Ridge Gourd Seeds has high yield potential with uniform &amp; quality fruits.
+</t>
+  </si>
+  <si>
+    <t>Fruit Colour: Attractive green.
+Fruit Length: 25-30 cm.
+Fruit Weight: 200-225 gm.
+Fruit Width: 2.2 - 2.6 cm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed Rate: 0.8 - 1.5 kg per acre.
+Method of Sowing: Dibbling.
+Spacing: Row to Ridges is- 5-8 ft and Plant to Plant is- 2-3 ft.
+First harvest (DAS): 50 – 55 days.
 </t>
   </si>
 </sst>
@@ -1014,13 +1014,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF555555"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1031,7 +1031,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF555555"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1668,10 +1668,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1686,7 +1686,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
@@ -2233,8 +2233,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2428,7 +2428,7 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -2752,7 +2752,7 @@
       <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -3248,6 +3248,7 @@
     <hyperlink ref="E26" r:id="rId14" display="https://www.youtube.com/embed/o-NGiyHuz_I"/>
     <hyperlink ref="E27" r:id="rId15" display="https://www.youtube.com/embed/1yLhSy6ChHU" tooltip="https://www.youtube.com/embed/1yLhSy6ChHU"/>
     <hyperlink ref="E28" r:id="rId16" display="https://www.youtube.com/embed/87f76VhKqxg"/>
+    <hyperlink ref="E15" r:id="rId8" display="https://www.youtube.com/embed/n1rERTOzkTI"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3260,7 +3261,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3310,77 +3311,77 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" ht="180" spans="1:11">
+    <row r="2" ht="150" spans="1:11">
       <c r="A2" t="s">
         <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>149</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
       <c r="H2">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
       <c r="J2">
-        <v>1450</v>
+        <v>2700</v>
       </c>
       <c r="K2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="105" spans="1:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="165" spans="1:11">
       <c r="A3" t="s">
         <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>148</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" t="s">
         <v>153</v>
       </c>
-      <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
         <v>47</v>
       </c>
-      <c r="J3">
-        <v>250</v>
-      </c>
-      <c r="K3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="120" spans="1:11">
+    </row>
+    <row r="4" ht="135" spans="1:11">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -3388,439 +3389,439 @@
         <v>148</v>
       </c>
       <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="J4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="150" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="75" spans="1:11">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J5">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="K5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" ht="90" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="105" spans="1:11">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="135" spans="1:11">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
         <v>153</v>
       </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6">
-        <v>400</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6">
-        <v>1280</v>
-      </c>
-      <c r="K6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="90" spans="1:11">
-      <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" t="s">
-        <v>165</v>
+        <v>175</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="J7">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="90" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="105" spans="1:11">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="J8">
-        <v>929</v>
+        <v>300</v>
       </c>
       <c r="K8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="165" spans="1:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="120" spans="1:11">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>177</v>
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" t="s">
-        <v>165</v>
+        <v>184</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="J9">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="K9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" ht="135" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="105" spans="1:11">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="J10">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="75" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="120" spans="1:11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="J11">
-        <v>3600</v>
+        <v>150</v>
       </c>
       <c r="K11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" ht="135" spans="1:11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="105" spans="1:11">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>153</v>
+      <c r="C12" t="s">
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
+        <v>197</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="H12">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
       </c>
       <c r="J12">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K12">
         <v>42</v>
       </c>
     </row>
-    <row r="13" ht="105" spans="1:11">
+    <row r="13" ht="120" spans="1:11">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>191</v>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" t="s">
-        <v>165</v>
+        <v>199</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="90" spans="1:11">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14">
+        <v>1280</v>
+      </c>
+      <c r="K14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="135" spans="1:11">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15">
         <v>300</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13">
-        <v>1440</v>
-      </c>
-      <c r="K13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" ht="165" spans="1:11">
-      <c r="A14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14">
-        <v>3.5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14">
-        <v>2300</v>
-      </c>
-      <c r="K14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="75" spans="1:11">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15">
-        <v>450</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
       </c>
       <c r="J15">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="60" spans="1:11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="75" spans="1:11">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H16">
         <v>450</v>
@@ -3840,22 +3841,22 @@
         <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H17">
         <v>450</v>
@@ -3870,322 +3871,325 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="45" spans="1:11">
+    <row r="18" ht="60" spans="1:11">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J18">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="K18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" ht="75" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="45" spans="1:11">
       <c r="A19" t="s">
         <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H19">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="J19">
         <v>2500</v>
       </c>
       <c r="K19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="75" spans="1:11">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20">
+        <v>2500</v>
+      </c>
+      <c r="K20">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="45" spans="1:11">
-      <c r="A20" t="s">
+    <row r="21" ht="45" spans="1:11">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21">
+        <v>1500</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="165" spans="1:11">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22">
+        <v>2300</v>
+      </c>
+      <c r="K22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" ht="180" spans="1:11">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23">
+        <v>1450</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="105" spans="1:11">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <v>1440</v>
+      </c>
+      <c r="K24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" ht="90" spans="1:11">
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25">
+        <v>310</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="90" spans="1:11">
+      <c r="A26" t="s">
         <v>147</v>
       </c>
-      <c r="B20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>212</v>
-      </c>
-      <c r="J20">
-        <v>1500</v>
-      </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="105" spans="1:11">
-      <c r="A21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H21">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s">
-        <v>219</v>
-      </c>
-      <c r="J21">
-        <v>120</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" ht="135" spans="1:11">
-      <c r="A22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22" t="s">
-        <v>224</v>
-      </c>
-      <c r="J22">
-        <v>300</v>
-      </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" ht="105" spans="1:11">
-      <c r="A23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H23">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>219</v>
-      </c>
-      <c r="J23">
-        <v>300</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" ht="120" spans="1:11">
-      <c r="A24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24">
-        <v>56</v>
-      </c>
-      <c r="I24" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24">
-        <v>450</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="105" spans="1:11">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H25" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" ht="120" spans="1:11">
-      <c r="A26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" t="s">
-        <v>214</v>
       </c>
       <c r="D26" t="s">
         <v>237</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H26" t="s">
-        <v>165</v>
+      <c r="H26">
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="J26">
-        <v>150</v>
+        <v>929</v>
       </c>
       <c r="K26">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K26">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
